--- a/evaluation/questions.xlsx
+++ b/evaluation/questions.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BioChirp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809CA919-477D-4299-816A-C2BB97D782B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD2FD15-85FF-43BE-BC13-F5BDEC35C646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="direct" sheetId="1" r:id="rId1"/>
+    <sheet name="semantic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>questions</t>
   </si>
@@ -64,12 +65,6 @@
     <t>What is the mechanism of action for each drug targeting the Substance-P receptor (TACR1)?</t>
   </si>
   <si>
-    <t>What drugs are associated with the Calcium signaling pathway?</t>
-  </si>
-  <si>
-    <t>Which drugs have a modulator mechanism of action?</t>
-  </si>
-  <si>
     <t>Which drugs have Antagonist as their mechanism of action?</t>
   </si>
   <si>
@@ -94,27 +89,18 @@
     <t>Which drugs target Prostaglandin F2-alpha receptor (PTGFR) in approved treatments?</t>
   </si>
   <si>
-    <t>What is the most common mechanism of action for drugs targeting Prostaglandin F2-alpha receptor (PTGFR)?</t>
-  </si>
-  <si>
     <t>Which drugs have an inhibitor mechanism in the Calcium signaling pathway?</t>
   </si>
   <si>
     <t>What is the SMILES structure of the drug associated with Prostaglandin F2-alpha receptor (PTGFR)?</t>
   </si>
   <si>
-    <t>What are the approval statuses for drugs targeting Free fatty acid receptor 2 (FFAR2)?</t>
-  </si>
-  <si>
     <t>List all breast cancer drugs that function through an inhibitory mechanism of action.</t>
   </si>
   <si>
     <t>Which drugs have inhibitor mechanisms in the cAMP signaling pathway?</t>
   </si>
   <si>
-    <t>What is the drug approval status for abortion in the cAMP signaling pathway?</t>
-  </si>
-  <si>
     <t>Which diseases are treated with Cabozantinib?</t>
   </si>
   <si>
@@ -124,9 +110,6 @@
     <t>What are the approval statuses of Oseltamivir for treating different diseases where it has shown efficacy?</t>
   </si>
   <si>
-    <t>Which diseases are associated with the Ras signaling pathway?</t>
-  </si>
-  <si>
     <t>What drugs and targets are involved in treating breast cancer?</t>
   </si>
   <si>
@@ -136,33 +119,18 @@
     <t>List all approved drugs for leukaemia.</t>
   </si>
   <si>
-    <t>What biomarkers are associated with rheumatic fever?</t>
-  </si>
-  <si>
-    <t>Provide a list of all patented drugs for Alzheimer disease.</t>
-  </si>
-  <si>
     <t>List all drugs used for treating dengue fever.</t>
   </si>
   <si>
     <t>Which targets are associated with dengue fever?</t>
   </si>
   <si>
-    <t>What is the gene name associated with the histamine H1 receptor (H1R)?</t>
-  </si>
-  <si>
-    <t>List all drugs for breast cancer that function through an inhibitory mechanism of action.</t>
-  </si>
-  <si>
     <t>Which signaling pathway is targeted by Dihydroergotoxine?</t>
   </si>
   <si>
     <t>Which drugs act on the TACR3 gene, and what is their current approval status?</t>
   </si>
   <si>
-    <t>What is the drug mechanism for Prostaglandin F2-alpha receptor (PTGFR)?</t>
-  </si>
-  <si>
     <t>Which diseases are associated with Free fatty acid receptor 2 (FFAR2)?</t>
   </si>
   <si>
@@ -173,6 +141,99 @@
   </si>
   <si>
     <t>Which pathways are linked to drugs with Modulator mechanisms?</t>
+  </si>
+  <si>
+    <t>What genes are involved in interactions with or regulation of Histone Deacetylase 1 (HDAC1) activity and function?</t>
+  </si>
+  <si>
+    <t>What drugs are used to treat Autism Spectrum Disorder?</t>
+  </si>
+  <si>
+    <t>What are the mechanisms of action of drugs that target the Histone Deacetylase 1 (HDAC1)?</t>
+  </si>
+  <si>
+    <t>List the approval statuses of drugs that target Free Fatty Acid Receptor 2 (FFAR2).</t>
+  </si>
+  <si>
+    <t>What are the drugs and their corresponding approval statuses associated with abortion that target the cAMP signaling pathway?</t>
+  </si>
+  <si>
+    <t>What diseases are related to the Ras signaling pathway?</t>
+  </si>
+  <si>
+    <t>List the mechanisms of action for drugs targeting the Prostaglandin F2-alpha receptor (PTGFR).</t>
+  </si>
+  <si>
+    <t>Provide a list of drugs used in the treatment of malaria.</t>
+  </si>
+  <si>
+    <t>List the biomarkers associated with malaria.</t>
+  </si>
+  <si>
+    <t>List all lung cancer drugs that act as inhibitors.</t>
+  </si>
+  <si>
+    <t>What is the gene associated with the Free Fatty Acid Receptor 2 (FFAR2)?</t>
+  </si>
+  <si>
+    <t>Which drugs are being developed to target the JAK-STAT pathway in cancer?</t>
+  </si>
+  <si>
+    <t>List drugs that act as antagonists to the CXCR4 receptor in leukemia treatment.</t>
+  </si>
+  <si>
+    <t>List all therapies targeting the PI3K pathway in breast cancer.</t>
+  </si>
+  <si>
+    <t>Which drugs target the ALK gene fusion in lung cancer?</t>
+  </si>
+  <si>
+    <t>Which drugs target CD20 in the treatment of B-cell lymphomas?</t>
+  </si>
+  <si>
+    <t>List drugs that act as antagonists to IL-1 in inflammatory diseases.</t>
+  </si>
+  <si>
+    <t>Provide drugs that target FGFR mutations in various tumors.</t>
+  </si>
+  <si>
+    <t>Provide drugs that target PARP.</t>
+  </si>
+  <si>
+    <t>Which drugs target CD38 in multiple myeloma?</t>
+  </si>
+  <si>
+    <t>Which drugs are currently under investigation as CDK4/6 inhibitors for breast cancer?</t>
+  </si>
+  <si>
+    <t>Provide the drugs used to treat diabetes.</t>
+  </si>
+  <si>
+    <t>List all targets associated with diabetes, including any related pathways and relevant aspects of diabetes management.</t>
+  </si>
+  <si>
+    <t>List all biomarkers associated with cancers.</t>
+  </si>
+  <si>
+    <t>What major diseases are associated with the JAK-STAT pathway?</t>
+  </si>
+  <si>
+    <t>Identify targets linked to autoimmune diseases.</t>
+  </si>
+  <si>
+    <t>Which major pathways are associated with neurodegenerative diseases?</t>
+  </si>
+  <si>
+    <t>What are the primary mechanisms of action for drugs used in carcinoma treatment?</t>
+  </si>
+  <si>
+    <t>List diseases associated with tyrosine kinase activity.</t>
+  </si>
+  <si>
+    <t>List all drugs that target adrenergic receptors.</t>
+  </si>
+  <si>
+    <t>Give me a list of all phase 2 drugs that target metabolic pathways.</t>
   </si>
 </sst>
 </file>
@@ -191,6 +252,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -234,11 +296,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,162 +687,162 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
@@ -789,25 +852,150 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D571F54C-E294-4A8E-854B-AA226347FB6C}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="105.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>